--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.58579813684483</v>
+        <v>1.824357333333333</v>
       </c>
       <c r="H2">
-        <v>1.58579813684483</v>
+        <v>5.473072</v>
       </c>
       <c r="I2">
-        <v>0.002712487645951506</v>
+        <v>0.003038792251822429</v>
       </c>
       <c r="J2">
-        <v>0.002712487645951506</v>
+        <v>0.003038792251822428</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.6169542306275</v>
+        <v>2.815322333333333</v>
       </c>
       <c r="N2">
-        <v>2.6169542306275</v>
+        <v>8.445967</v>
       </c>
       <c r="O2">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751157</v>
       </c>
       <c r="P2">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751158</v>
       </c>
       <c r="Q2">
-        <v>4.149961143137284</v>
+        <v>5.136153944513778</v>
       </c>
       <c r="R2">
-        <v>4.149961143137284</v>
+        <v>46.225385500624</v>
       </c>
       <c r="S2">
-        <v>0.001238619452718646</v>
+        <v>0.001314960061904956</v>
       </c>
       <c r="T2">
-        <v>0.001238619452718646</v>
+        <v>0.001314960061904956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.58579813684483</v>
+        <v>1.824357333333333</v>
       </c>
       <c r="H3">
-        <v>1.58579813684483</v>
+        <v>5.473072</v>
       </c>
       <c r="I3">
-        <v>0.002712487645951506</v>
+        <v>0.003038792251822429</v>
       </c>
       <c r="J3">
-        <v>0.002712487645951506</v>
+        <v>0.003038792251822428</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.70757887568861</v>
+        <v>2.808242333333334</v>
       </c>
       <c r="N3">
-        <v>2.70757887568861</v>
+        <v>8.424727000000001</v>
       </c>
       <c r="O3">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="P3">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="Q3">
-        <v>4.293673536427417</v>
+        <v>5.123237494593779</v>
       </c>
       <c r="R3">
-        <v>4.293673536427417</v>
+        <v>46.109137451344</v>
       </c>
       <c r="S3">
-        <v>0.001281512617205324</v>
+        <v>0.001311653187545293</v>
       </c>
       <c r="T3">
-        <v>0.001281512617205324</v>
+        <v>0.001311653187545293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.58579813684483</v>
+        <v>1.824357333333333</v>
       </c>
       <c r="H4">
-        <v>1.58579813684483</v>
+        <v>5.473072</v>
       </c>
       <c r="I4">
-        <v>0.002712487645951506</v>
+        <v>0.003038792251822429</v>
       </c>
       <c r="J4">
-        <v>0.002712487645951506</v>
+        <v>0.003038792251822428</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.406408713640956</v>
+        <v>0.882473</v>
       </c>
       <c r="N4">
-        <v>0.406408713640956</v>
+        <v>2.647419</v>
       </c>
       <c r="O4">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="P4">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="Q4">
-        <v>0.6444821808893321</v>
+        <v>1.609946089018667</v>
       </c>
       <c r="R4">
-        <v>0.6444821808893321</v>
+        <v>14.489514801168</v>
       </c>
       <c r="S4">
-        <v>0.0001923555760275359</v>
+        <v>0.0004121790023721802</v>
       </c>
       <c r="T4">
-        <v>0.0001923555760275359</v>
+        <v>0.0004121790023721802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>572.775478413366</v>
+        <v>577.3276773333333</v>
       </c>
       <c r="H5">
-        <v>572.775478413366</v>
+        <v>1731.983032</v>
       </c>
       <c r="I5">
-        <v>0.9797252077691416</v>
+        <v>0.961642130403093</v>
       </c>
       <c r="J5">
-        <v>0.9797252077691416</v>
+        <v>0.961642130403093</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.6169542306275</v>
+        <v>2.815322333333333</v>
       </c>
       <c r="N5">
-        <v>2.6169542306275</v>
+        <v>8.445967</v>
       </c>
       <c r="O5">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751157</v>
       </c>
       <c r="P5">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751158</v>
       </c>
       <c r="Q5">
-        <v>1498.927211433549</v>
+        <v>1625.363503647994</v>
       </c>
       <c r="R5">
-        <v>1498.927211433549</v>
+        <v>14628.27153283194</v>
       </c>
       <c r="S5">
-        <v>0.4473777797561151</v>
+        <v>0.4161261746560346</v>
       </c>
       <c r="T5">
-        <v>0.4473777797561151</v>
+        <v>0.4161261746560346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>572.775478413366</v>
+        <v>577.3276773333333</v>
       </c>
       <c r="H6">
-        <v>572.775478413366</v>
+        <v>1731.983032</v>
       </c>
       <c r="I6">
-        <v>0.9797252077691416</v>
+        <v>0.961642130403093</v>
       </c>
       <c r="J6">
-        <v>0.9797252077691416</v>
+        <v>0.961642130403093</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.70757887568861</v>
+        <v>2.808242333333334</v>
       </c>
       <c r="N6">
-        <v>2.70757887568861</v>
+        <v>8.424727000000001</v>
       </c>
       <c r="O6">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="P6">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="Q6">
-        <v>1550.834785864467</v>
+        <v>1621.276023692474</v>
       </c>
       <c r="R6">
-        <v>1550.834785864467</v>
+        <v>14591.48421323227</v>
       </c>
       <c r="S6">
-        <v>0.4628703902206487</v>
+        <v>0.4150796965026516</v>
       </c>
       <c r="T6">
-        <v>0.4628703902206487</v>
+        <v>0.4150796965026516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>572.775478413366</v>
+        <v>577.3276773333333</v>
       </c>
       <c r="H7">
-        <v>572.775478413366</v>
+        <v>1731.983032</v>
       </c>
       <c r="I7">
-        <v>0.9797252077691416</v>
+        <v>0.961642130403093</v>
       </c>
       <c r="J7">
-        <v>0.9797252077691416</v>
+        <v>0.961642130403093</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.406408713640956</v>
+        <v>0.882473</v>
       </c>
       <c r="N7">
-        <v>0.406408713640956</v>
+        <v>2.647419</v>
       </c>
       <c r="O7">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="P7">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="Q7">
-        <v>232.7809453870593</v>
+        <v>509.4760873993786</v>
       </c>
       <c r="R7">
-        <v>232.7809453870593</v>
+        <v>4585.284786594408</v>
       </c>
       <c r="S7">
-        <v>0.06947703779237774</v>
+        <v>0.1304362592444068</v>
       </c>
       <c r="T7">
-        <v>0.06947703779237774</v>
+        <v>0.1304362592444068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.478429510546695</v>
+        <v>0.8008510000000001</v>
       </c>
       <c r="H8">
-        <v>0.478429510546695</v>
+        <v>2.402553</v>
       </c>
       <c r="I8">
-        <v>0.000818347623612777</v>
+        <v>0.001333960057713973</v>
       </c>
       <c r="J8">
-        <v>0.000818347623612777</v>
+        <v>0.001333960057713973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6169542306275</v>
+        <v>2.815322333333333</v>
       </c>
       <c r="N8">
-        <v>2.6169542306275</v>
+        <v>8.445967</v>
       </c>
       <c r="O8">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751157</v>
       </c>
       <c r="P8">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751158</v>
       </c>
       <c r="Q8">
-        <v>1.252028131682218</v>
+        <v>2.254653705972333</v>
       </c>
       <c r="R8">
-        <v>1.252028131682218</v>
+        <v>20.291883353751</v>
       </c>
       <c r="S8">
-        <v>0.0003736869685676658</v>
+        <v>0.0005772372886031715</v>
       </c>
       <c r="T8">
-        <v>0.0003736869685676658</v>
+        <v>0.0005772372886031715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.478429510546695</v>
+        <v>0.8008510000000001</v>
       </c>
       <c r="H9">
-        <v>0.478429510546695</v>
+        <v>2.402553</v>
       </c>
       <c r="I9">
-        <v>0.000818347623612777</v>
+        <v>0.001333960057713973</v>
       </c>
       <c r="J9">
-        <v>0.000818347623612777</v>
+        <v>0.001333960057713973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.70757887568861</v>
+        <v>2.808242333333334</v>
       </c>
       <c r="N9">
-        <v>2.70757887568861</v>
+        <v>8.424727000000001</v>
       </c>
       <c r="O9">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="P9">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="Q9">
-        <v>1.295385636262272</v>
+        <v>2.248983680892334</v>
       </c>
       <c r="R9">
-        <v>1.295385636262272</v>
+        <v>20.240853128031</v>
       </c>
       <c r="S9">
-        <v>0.0003866276797555288</v>
+        <v>0.0005757856466526487</v>
       </c>
       <c r="T9">
-        <v>0.0003866276797555288</v>
+        <v>0.0005757856466526487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.478429510546695</v>
+        <v>0.8008510000000001</v>
       </c>
       <c r="H10">
-        <v>0.478429510546695</v>
+        <v>2.402553</v>
       </c>
       <c r="I10">
-        <v>0.000818347623612777</v>
+        <v>0.001333960057713973</v>
       </c>
       <c r="J10">
-        <v>0.000818347623612777</v>
+        <v>0.001333960057713973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.406408713640956</v>
+        <v>0.882473</v>
       </c>
       <c r="N10">
-        <v>0.406408713640956</v>
+        <v>2.647419</v>
       </c>
       <c r="O10">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="P10">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="Q10">
-        <v>0.1944379219491545</v>
+        <v>0.706729384523</v>
       </c>
       <c r="R10">
-        <v>0.1944379219491545</v>
+        <v>6.360564460707</v>
       </c>
       <c r="S10">
-        <v>5.803297528958224E-05</v>
+        <v>0.0001809371224581531</v>
       </c>
       <c r="T10">
-        <v>5.803297528958224E-05</v>
+        <v>0.0001809371224581531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.788997856731619</v>
+        <v>20.403171</v>
       </c>
       <c r="H11">
-        <v>9.788997856731619</v>
+        <v>61.209513</v>
       </c>
       <c r="I11">
-        <v>0.01674395696129415</v>
+        <v>0.03398511728737064</v>
       </c>
       <c r="J11">
-        <v>0.01674395696129415</v>
+        <v>0.03398511728737064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.6169542306275</v>
+        <v>2.815322333333333</v>
       </c>
       <c r="N11">
-        <v>2.6169542306275</v>
+        <v>8.445967</v>
       </c>
       <c r="O11">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751157</v>
       </c>
       <c r="P11">
-        <v>0.456635979362831</v>
+        <v>0.4327245671751158</v>
       </c>
       <c r="Q11">
-        <v>25.61735935477734</v>
+        <v>57.44150298711899</v>
       </c>
       <c r="R11">
-        <v>25.61735935477734</v>
+        <v>516.973526884071</v>
       </c>
       <c r="S11">
-        <v>0.007645893185429646</v>
+        <v>0.014706195168573</v>
       </c>
       <c r="T11">
-        <v>0.007645893185429646</v>
+        <v>0.014706195168573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.788997856731619</v>
+        <v>20.403171</v>
       </c>
       <c r="H12">
-        <v>9.788997856731619</v>
+        <v>61.209513</v>
       </c>
       <c r="I12">
-        <v>0.01674395696129415</v>
+        <v>0.03398511728737064</v>
       </c>
       <c r="J12">
-        <v>0.01674395696129415</v>
+        <v>0.03398511728737064</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.70757887568861</v>
+        <v>2.808242333333334</v>
       </c>
       <c r="N12">
-        <v>2.70757887568861</v>
+        <v>8.424727000000001</v>
       </c>
       <c r="O12">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="P12">
-        <v>0.4724491995818052</v>
+        <v>0.4316363472227054</v>
       </c>
       <c r="Q12">
-        <v>26.50448381104761</v>
+        <v>57.29704853643901</v>
       </c>
       <c r="R12">
-        <v>26.50448381104761</v>
+        <v>515.673436827951</v>
       </c>
       <c r="S12">
-        <v>0.007910669064195616</v>
+        <v>0.01466921188585588</v>
       </c>
       <c r="T12">
-        <v>0.007910669064195616</v>
+        <v>0.01466921188585588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.788997856731619</v>
+        <v>20.403171</v>
       </c>
       <c r="H13">
-        <v>9.788997856731619</v>
+        <v>61.209513</v>
       </c>
       <c r="I13">
-        <v>0.01674395696129415</v>
+        <v>0.03398511728737064</v>
       </c>
       <c r="J13">
-        <v>0.01674395696129415</v>
+        <v>0.03398511728737064</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.406408713640956</v>
+        <v>0.882473</v>
       </c>
       <c r="N13">
-        <v>0.406408713640956</v>
+        <v>2.647419</v>
       </c>
       <c r="O13">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="P13">
-        <v>0.07091482105536374</v>
+        <v>0.1356390856021789</v>
       </c>
       <c r="Q13">
-        <v>3.978334026788373</v>
+        <v>18.005247521883</v>
       </c>
       <c r="R13">
-        <v>3.978334026788373</v>
+        <v>162.047227696947</v>
       </c>
       <c r="S13">
-        <v>0.001187394711668887</v>
+        <v>0.004609710232941755</v>
       </c>
       <c r="T13">
-        <v>0.001187394711668887</v>
+        <v>0.004609710232941754</v>
       </c>
     </row>
   </sheetData>
